--- a/Data/Transitions/19231968Translation.xlsx
+++ b/Data/Transitions/19231968Translation.xlsx
@@ -28,16 +28,16 @@
     <t>{1.0: 1.0, 886.0: 0.0010655856774592443}</t>
   </si>
   <si>
-    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.53320505597968e-06, 152.0: 1.7512315030382182e-06}</t>
-  </si>
-  <si>
-    <t>{5.0: 0.9694199207584238, 403.0: 0.005887612687734961}</t>
+    <t>{4.0: 1.0, 496.0: 0.0086292731496847, 559.0: 0.07823909206597987, 944.0: 0.0369675477904083, 971.0: 0.004024767801857585, 975.0: 8.707294875854653e-06, 152.0: 1.7174174533209238e-06}</t>
+  </si>
+  <si>
+    <t>{5.0: 0.9694640710996556, 403.0: 0.005871187763315918}</t>
   </si>
   <si>
     <t>{6.0: 1.0, 561.0: 0.0047579584709249965, 979.0: 7.0703902341199035e-06}</t>
   </si>
   <si>
-    <t>{7.0: 0.8729846404621571}</t>
+    <t>{7.0: 0.8728545550605372}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -46,13 +46,13 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9834797394932683}</t>
+    <t>{10.0: 0.9833918954386325}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9990105540897097, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9990105540897097, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -61,19 +61,19 @@
     <t>{16.0: 0.9941305098400276}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
   </si>
   <si>
-    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.0003786651141143844, 477.0: 0.00025028495136528975}</t>
+    <t>{19.0: 1.0, 636.0: 0.002858231707317073, 423.0: 0.00037866993652094233, 477.0: 0.0002502803258980169}</t>
   </si>
   <si>
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0, 995.0: 1.0}</t>
@@ -88,22 +88,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.9985255086994986, 246.0: 0.022593863741376743, 681.0: 0.009117688454576946, 741.0: 0.00817597294805933, 789.0: 0.003076122361619858, 90.0: 0.00531010397249111}</t>
+    <t>{46.0: 0.9985255086994986, 246.0: 0.022574825533003936, 681.0: 0.009122520122153777, 741.0: 0.008183965540227347, 789.0: 0.0030823695638164867, 90.0: 0.005333033966917777}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8927723425900513}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8862897962909823}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -118,7 +118,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.9013317191283293}</t>
+    <t>{61.0: 0.900012268433321}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -133,37 +133,37 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8433678599502096, 888.0: 0.006491762867531044, 11.0: 1.0}</t>
+    <t>{73.0: 0.843363874567225, 888.0: 0.0064918045262522235, 11.0: 1.0}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.13643574699810795}</t>
+    <t>{75.0: 1.0, 917.0: 0.13677505342411111}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 0.9559682317215604, 85.0: 0.0008874153926401118}</t>
+    <t>{77.0: 0.9559682317215604, 85.0: 0.0008843369396129144}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993500645023944, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7702550409471253, 172.0: 0.0016235303668609249}</t>
-  </si>
-  <si>
-    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001841720030388352}</t>
+    <t>{79.0: 0.9993781418780706, 271.0: 0.014820863280979566, 262.0: 0.0030915105248829106}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7683130360947987, 172.0: 0.001613899422967784}</t>
+  </si>
+  <si>
+    <t>{82.0: 0.9989678560896491, 914.0: 0.0013311443318433421, 110.0: 0.0001842445762345899}</t>
   </si>
   <si>
     <t>{83.0: 0.9809857854901237}</t>
@@ -172,10 +172,10 @@
     <t>{84.0: 0.6814142894857135}</t>
   </si>
   <si>
-    <t>{85.0: 0.9886598798546655, 178.0: 0.008694216268385058, 492.0: 0.0026003154391696127, 97.0: 1.3219344149476795e-05, 696.0: 3.435220455010528e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.8967637375132628, 694.0: 0.006483790523690773}</t>
+    <t>{85.0: 0.9886248980275637, 178.0: 0.008740265076213482, 492.0: 0.0026000821520827133, 97.0: 1.317900243106368e-05, 696.0: 3.337415196969153e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.8967465145821124, 694.0: 0.006483790523690773}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -184,13 +184,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9939793120926143, 420.0: 0.0014991437911200875, 212.0: 1.4030499998860047e-06, 681.0: 9.006419171195067e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9631975404793867, 104.0: 0.998602903634582, 92.0: 0.08226874328514915, 294.0: 1.0, 566.0: 1.0, 858.0: 0.004867508316901873, 543.0: 9.095364270300777e-05}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.9177312567148509, 91.0: 0.036469355466693706, 104.0: 0.0013844510566776828, 858.0: 0.10635135141719504, 543.0: 0.001987267856162264}</t>
+    <t>{90.0: 0.9939563644621425, 420.0: 0.0014966934602642376, 212.0: 1.3973902580550808e-06, 681.0: 8.982581474534481e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9632015604161517, 104.0: 0.9986870040336279, 92.0: 0.08160476573587713, 294.0: 1.0, 566.0: 1.0, 858.0: 0.00453890631355781, 543.0: 8.483780111199807e-05}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.918395234264123, 91.0: 0.036469507672753906, 104.0: 0.0013012594286992006, 858.0: 0.09917164778675883, 543.0: 0.001853641372978079}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -202,10 +202,10 @@
     <t>{96.0: 1.0, 100.0: 0.001081665765278529}</t>
   </si>
   <si>
-    <t>{97.0: 0.9722904830708197}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.3294469559252}</t>
+    <t>{97.0: 0.9723237186088487}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.33258017449224603}</t>
   </si>
   <si>
     <t>{99.0: 1.0, 230.0: 0.004871395167575994}</t>
@@ -226,16 +226,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164, 543.0: -6.48467367384621e-05, 86.0: -1.7825636407842836e-05}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 543.0: -4.352648695613634e-05, 86.0: -1.1964940251659625e-05, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467, 543.0: 0.003096384867062236, 86.0: 0.0008838891141578506}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 543.0: 0.004735938656409289, 86.0: 0.0013519135389946312, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
   </si>
   <si>
-    <t>{109.0: 1.0, 110.0: 0.9431251500439995, 914.0: 0.7690138754556746}</t>
+    <t>{109.0: 1.0, 110.0: 0.9431027384420663, 914.0: 0.7690138754556746}</t>
   </si>
   <si>
     <t>{139.0: 0.6493268053855569}</t>
@@ -247,16 +247,16 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 0.9290859197900155, 44.0: 0.0200443155826856}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04832944130170801}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9506590101861113}</t>
-  </si>
-  <si>
-    <t>{145.0: 0.9974893393037774, 743.0: 0.002920931244925139, 544.0: 2.533420491138831e-06, 975.0: 0.005095642723967638, 942.0: 0.031023147610285164, 152.0: 0.0003658764490503502}</t>
+    <t>{142.0: 0.9290859197900155, 44.0: 0.019826992689839017}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04467886430582105}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9543139172956562}</t>
+  </si>
+  <si>
+    <t>{145.0: 0.9974893393037774, 743.0: 0.0029287602462860877, 544.0: 2.533420491138831e-06, 975.0: 0.0050954218128254096, 942.0: 0.031022815778396627, 152.0: 0.0003658795242960575}</t>
   </si>
   <si>
     <t>{146.0: 1.0}</t>
@@ -274,10 +274,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054, 975.0: 0.0007626722792535179}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.00015302591742855296}</t>
+    <t>{152.0: 0.9280286630608138, 975.0: 0.0007626456248778554}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851, 404.0: 0.0001543025857522946}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -286,10 +286,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 1.0, 914.0: 0.22447643559661895, 110.0: 0.027568910580486}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 1.0, 914.0: 0.22447643559661895, 110.0: 0.0275797741423265}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 0.9994646680942184, 596.0: 0.9994646680942184}</t>
@@ -301,16 +301,16 @@
     <t>{170.0: 0.5220346929207689}</t>
   </si>
   <si>
-    <t>{171.0: 0.6765676889513836}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411903957421226, 81.0: 0.01441632528870922}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9233712163834815, 404.0: 0.001843951069630992, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.004820511450036743, 212.0: 4.511520929137317e-06, 681.0: 2.8960228495585646e-08, 831.0: 0.004032258064516129}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.0065949395099733615}</t>
+    <t>{171.0: 0.6794159374403735}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9405133606178667, 81.0: 0.0143799903907803}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9233712163834815, 404.0: 0.0018593348291972536, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0048126323873231005, 212.0: 4.4933219741992875e-06, 681.0: 2.8883578149984707e-08, 831.0: 0.004032258064516129}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.006574812569522062}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,43 +319,43 @@
     <t>{176.0: 1.0, 607.0: 0.0006079027355623101, 276.0: 1.1784486489528159e-07}</t>
   </si>
   <si>
-    <t>{177.0: 1.0, 562.0: 0.0005025757004648825, 211.0: 1.4761722271806034e-05}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9759748680013169, 681.0: 0.010227277857796856, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.531692820600847, 410.0: 0.018224940199432906, 850.0: 0.001415488374311739, 277.0: 5.627730809889518e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.46830717939915295, 410.0: 0.016052258012191532, 850.0: 0.0012467412429927535, 277.0: 4.9568221346656136e-05}</t>
+    <t>{177.0: 1.0, 562.0: 0.0005025757004648825, 211.0: 1.4839699675110984e-05}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9759282428739054, 681.0: 0.010311688422776206, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.5315600531459954, 410.0: 0.018065066593618166, 850.0: 0.0014179661304327988, 277.0: 5.664210183645187e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.46843994685400464, 410.0: 0.015919929996515952, 850.0: 0.0012495897215178515, 277.0: 4.991613462473469e-05}</t>
   </si>
   <si>
     <t>{181.0: 0.9954311821816105}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0023339836856795435}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9918073154221901, 171.0: 0.003713599073037713, 593.0: 0.0009491797243270216, 778.0: 0.004088166085144559, 420.0: 4.639583461235061e-06, 212.0: 4.3421902644130816e-09, 681.0: 2.7873265846237817e-11}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.008551848964568199}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.140246459639255}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.27479290927306305, 307.0: 0.9834669117201308}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.997521422253054, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.0023355325289895535}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917910059913613, 171.0: 0.0036853674878954555, 593.0: 0.0009488962327097717, 778.0: 0.004072641875622815, 420.0: 4.632000122945102e-06, 212.0: 4.324674369841023e-09, 681.0: 2.779949241380559e-11}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.006078068845796023}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.710222727687857}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27481355893620624, 307.0: 0.9834669117201308}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9975053289464635, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0, 206.0: 0.01639538570799976, 578.0: 0.0029847546889122914}</t>
@@ -367,16 +367,16 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.00019169446549450865}</t>
-  </si>
-  <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9915406543532144, 681.0: 0.00829306274851835}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 0.9474342928660826, 82.0: 0.0009778885358393656, 788.0: -0.0001674437961378676}</t>
+  </si>
+  <si>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9915438969641641, 681.0: 0.00830192132519551}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -385,49 +385,49 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.26372514252777124}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.19626745878340957}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
   </si>
   <si>
-    <t>{226.0: 0.7384353461125667, 265.0: 0.009059553658887049}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 0.00010807624995586887}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{226.0: 0.7384353461125667, 265.0: 0.006742230025165162}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 0.00010826368595086506}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
   </si>
   <si>
-    <t>{230.0: 0.995128604832424, 581.0: 0.0017099938141341248, 303.0: 0.0001474394666408979}</t>
+    <t>{230.0: 0.995128604832424, 581.0: 0.0017099938141341248, 303.0: 0.00014770204805967065}</t>
   </si>
   <si>
     <t>{231.0: 1.0}</t>
@@ -439,7 +439,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10722765740994868}</t>
+    <t>{49.0: 0.1137102037090177}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -448,19 +448,19 @@
     <t>{237.0: 0.9952565761103924}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.002564069085859641}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
-  </si>
-  <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -469,10 +469,10 @@
     <t>{244.0: 1.0, 565.0: 0.007684666063101304}</t>
   </si>
   <si>
-    <t>{858.0: 0.36701058067946674, 543.0: 0.006857913135439756}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.8920474855138789, 46.0: 0.001474491300501327, 681.0: 1.3463804569664716e-05, 741.0: 1.2073202817571368e-05, 789.0: 4.542413410543205e-06, 90.0: 7.841263987730523e-06}</t>
+    <t>{858.0: 0.262525543590365, 543.0: 0.004906928743475354}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.8921479974793537, 46.0: 0.001474491300501327, 681.0: 1.3470939341632867e-05, 741.0: 1.2085005227742688e-05, 789.0: 4.5516384580869565e-06, 90.0: 7.875123991313905e-06}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -481,19 +481,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9057835330760996}</t>
-  </si>
-  <si>
-    <t>{250.0: 1.0, 581.0: 0.009343583678296866, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.8056260087618169}</t>
+    <t>{249.0: 0.904978210564596}</t>
+  </si>
+  <si>
+    <t>{250.0: 1.0, 581.0: 0.009343583678296866, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.8169381107491857}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -511,34 +511,34 @@
     <t>{259.0: 1.0}</t>
   </si>
   <si>
-    <t>{260.0: 1.0, 707.0: 0.05531438024386263}</t>
+    <t>{260.0: 1.0, 707.0: 0.05530363347034253}</t>
   </si>
   <si>
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9747919123771428, 79.0: 0.0006499354976056577}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9979662270430174, 595.0: 0.0017117774048765308}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.5219532671708194}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686}</t>
-  </si>
-  <si>
-    <t>{61.0: 0.0978587195279492, 887.0: 0.1848324145887591}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9987689782519491, 479.0: 0.02114577354250803, 942.0: 0.0001945930080598899}</t>
+    <t>{262.0: 0.9747919123771428, 79.0: 0.0006218581219293059}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9979662270430174, 595.0: 0.0017292620441237876}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.5917282745489029}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092}</t>
+  </si>
+  <si>
+    <t>{61.0: 0.09913707376438961, 887.0: 0.18597332983288342}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9987689782519491, 479.0: 0.020519381779662598, 942.0: 0.00018904612772049995}</t>
   </si>
   <si>
     <t>{271.0: 0.9851791367190204, 237.0: 0.004743423889607589}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -547,13 +547,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{275.0: 0.9949076580731943, 921.0: 0.009641342074816815, 686.0: 0.0010047459875561287, 77.0: 0.026278906797477224, 85.0: 2.4394436572269415e-05}</t>
+    <t>{275.0: 0.994931634299257, 921.0: 0.009641342074816815, 686.0: 0.0010011859717920977, 77.0: 0.026278906797477224, 85.0: 2.4309812023568202e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9998061451972473, 167.0: 0.0005353319057815846, 596.0: 0.0005353319057815846}</t>
   </si>
   <si>
-    <t>{277.0: 0.9182157959186211}</t>
+    <t>{277.0: 0.91800401582254}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -562,10 +562,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005053750609359766, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103, 277.0: 0.003326032906596944}</t>
+    <t>{281.0: 1.0, 599.0: 0.005052641409470727, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913, 277.0: 0.0033252657802072005}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -574,16 +574,16 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.01593502092076081}</t>
-  </si>
-  <si>
-    <t>{286.0: 1.0, 909.0: 0.1554091037724622, 306.0: 0.011054877862037047, 142.0: 0.0007618672020061679, 788.0: 0.026298366265383358, 44.0: 3.616660946846924e-07}</t>
+    <t>{285.0: 1.0, 311.0: 0.11340988641029195}</t>
+  </si>
+  <si>
+    <t>{286.0: 1.0, 909.0: 0.15624688601630685, 306.0: 0.011054877862037047, 142.0: 0.0007618672020061679, 788.0: 0.026172626732387502, 44.0: 3.5774486716174825e-07}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
+    <t>{288.0: 0.9978511952726296}</t>
   </si>
   <si>
     <t>{289.0: 1.0}</t>
@@ -592,7 +592,7 @@
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0}</t>
@@ -604,55 +604,55 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.08537188859276383}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5896812929967927, 297.0: 0.004759120184553127, 476.0: 8.123250477002565e-05, 534.0: 5.362681647262582e-05}</t>
-  </si>
-  <si>
-    <t>{299.0: 0.9421714285714285, 443.0: 0.01300180256407217, 291.0: 0.0008901874285448801}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.08487354636370946}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5862408859117811, 297.0: 0.004786184211172354, 476.0: 8.204471701047029e-05, 534.0: 5.340099432879162e-05}</t>
+  </si>
+  <si>
+    <t>{299.0: 0.9421714285714285, 443.0: 0.013004144539068464, 291.0: 0.0008933313478388279}</t>
   </si>
   <si>
     <t>{300.0: 1.0}</t>
   </si>
   <si>
-    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.1156257142025587e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946238913745183e-06, 942.0: 1.1849036593952016e-05, 152.0: 1.3974350662682385e-07}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.8658669368456603, 144.0: 0.000958511394140859, 840.0: 0.10136869118905047}</t>
+    <t>{301.0: 0.9865262782189703, 145.0: 0.0003809828658252912, 743.0: 1.118615937012485e-06, 544.0: 9.676191624546752e-10, 975.0: 1.946154538547632e-06, 942.0: 1.1848909853485841e-05, 152.0: 1.3974468119168037e-07}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.8657214311427002, 144.0: 0.0009544083153175263, 840.0: 0.10136869118905047}</t>
   </si>
   <si>
     <t>{304.0: 0.996803409696324}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{306.0: 0.9889451221379629, 142.0: 0.07015221300797832, 44.0: 7.544287133983491e-05}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{306.0: 0.9889451221379629, 142.0: 0.07015221300797832, 44.0: 7.462491060794599e-05}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0024785777469459903, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.002494671053536544, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2608672648665498, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.17636738590185097}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2608672648665498, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -661,28 +661,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.6705530440747999, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
+    <t>{242.0: 0.3128610519914868}</t>
+  </si>
+  <si>
+    <t>{398.0: 1.0, 98.0: 0.6674198255077539, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343, 16.0: 0.005869490159972379}</t>
   </si>
   <si>
-    <t>{402.0: 0.9631065512242976, 476.0: 0.014382932878232587, 141.0: 0.001462755443927208}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8742309217950237}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.9904927126157187, 907.0: 1.0, 930.0: 0.011826880543850254}</t>
+    <t>{402.0: 0.9631027328570206, 476.0: 0.014355866202532654, 141.0: 0.001462755443927208}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8717920424772339}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.9904092777917779, 907.0: 1.0, 930.0: 0.012177289833880672}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -691,13 +691,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756, 77.0: 0.017752861480962393, 85.0: 1.6479797151044226e-05}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659, 77.0: 0.017752861480962393, 85.0: 1.6422628567032743e-05}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -706,7 +706,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.036121526630896655}</t>
+    <t>{415.0: 1.0, 277.0: 0.03614478949162754}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -715,58 +715,58 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545, 922.0: 0.06975097214656553, 887.0: 0.0028364660922878294, 61.0: 2.8476974245022383e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.8578764750705797, 212.0: 0.0008028873516867112, 681.0: 5.153871948347349e-06}</t>
+    <t>{418.0: 0.879367457019463, 922.0: 0.06983756876525299, 887.0: 0.0028329448076724853, 61.0: 2.9922575373674414e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8564742872285432, 212.0: 0.0007996485967383983, 681.0: 5.140230962535237e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9933648160267351, 202.0: 0.0002402943891510571, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.674849362771424e-09, 104.0: 1.7746680897633777e-10, 680.0: 8.329277927499078e-08, 477.0: 1.2265567663800832e-05, 207.0: 6.229748827025319e-06}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9933774668066054, 202.0: 0.00024031139176103417, 307.0: 0.0008238054895957766, 853.0: 1.403420134868675e-05, 91.0: 4.616296670307187e-09, 104.0: 1.6471293283725172e-10, 680.0: 8.329277927499078e-08, 477.0: 1.2265456117012493e-05, 207.0: 6.229748827025319e-06}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.29759273185332574, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.7024072681466742}</t>
-  </si>
-  <si>
-    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808137663009234e-05, 918.0: 6.570736109710267e-07}</t>
+    <t>{431.0: 0.2217269368149083, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.7782730631850917}</t>
+  </si>
+  <si>
+    <t>{432.0: 0.9940968122786304, 304.0: 0.0031965903036760787, 833.0: 0.0007173601147776184, 17.0: 1.0808844077235574e-05, 918.0: 6.570736109710267e-07}</t>
   </si>
   <si>
     <t>{433.0: 1.0}</t>
   </si>
   <si>
-    <t>{434.0: 1.0, 585.0: 0.2490008596890933}</t>
-  </si>
-  <si>
-    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2308415575332725e-06, 172.0: 2.5943467283154615e-09}</t>
+    <t>{434.0: 1.0, 585.0: 0.24896884611085154}</t>
+  </si>
+  <si>
+    <t>{435.0: 0.9967622571692877, 781.0: 0.0030889621087314663, 81.0: 1.2137022864894853e-06, 172.0: 2.549473102495131e-09}</t>
   </si>
   <si>
     <t>{436.0: 1.0}</t>
@@ -781,31 +781,31 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006545006545006545}</t>
+    <t>{441.0: 1.0, 782.0: 0.0066929133858267716}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9493412936702375, 291.0: 0.06499804014552697}</t>
+    <t>{443.0: 0.9495122956187572, 291.0: 0.06522759696236087}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.8274726965311221, 402.0: 0.035199312420877364, 141.0: 5.346032149888464e-05}</t>
+    <t>{476.0: 0.8259187805956957, 402.0: 0.035199172868402566, 141.0: 5.346032149888464e-05}</t>
   </si>
   <si>
     <t>{478.0: 1.0, 170.0: 0.4779653070792311}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046, 559.0: 0.0005780346820809249, 944.0: 0.011925640126271484}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9754941963143856}</t>
+    <t>{481.0: 0.9754793465303014}</t>
   </si>
   <si>
     <t>{482.0: 1.0}</t>
@@ -823,22 +823,22 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.027692600544453445, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9913888345564824}</t>
-  </si>
-  <si>
-    <t>{494.0: 0.979825999243475, 889.0: 0.0006215198201897897, 565.0: 1.2463708207241241e-05}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.02765941663047021, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9914132703652688}</t>
+  </si>
+  <si>
+    <t>{494.0: 0.979825999243475, 889.0: 0.0010856577184348603, 565.0: 1.2463708207241241e-05}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
@@ -850,19 +850,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9149425095141601, 270.0: 0.0012310217480508822, 479.0: 2.6062991219196422e-05, 942.0: 2.398434774772677e-07}</t>
-  </si>
-  <si>
-    <t>{500.0: 0.9100470457515898, 277.0: 0.0002425405117500387}</t>
+    <t>{499.0: 0.9158799178259773, 270.0: 0.0012310217480508822, 479.0: 2.5290938923166717e-05, 942.0: 2.3300673096199664e-07}</t>
+  </si>
+  <si>
+    <t>{500.0: 0.9113407197519986, 277.0: 0.00024248457146551047}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.9933613631334366, 534.0: 0.00040881679869270057, 298.0: 0.0002447193894794796, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.9933818663136995, 534.0: 0.00040901744358735914, 298.0: 0.00024769904973694047, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -874,10 +874,10 @@
     <t>{506.0: 1.0}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873523329373408e-05}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 0.9919806324708731, 530.0: 0.9919806324708731, 680.0: 0.0006968856833630753, 481.0: 1.2873327357892935e-05}</t>
   </si>
   <si>
     <t>{531.0: 0.9893040072310937, 262.0: 0.02188001834926148, 442.0: 0.0020783697630905327}</t>
@@ -889,16 +889,16 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8952065849373411, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 141.0: 1.0046867056022953e-06}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{536.0: 0.5244740231859167}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{534.0: 0.8956459470954198, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 141.0: 1.0046867056022953e-06}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{536.0: 0.5216757544674189}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 0.9993696816892531}</t>
@@ -910,16 +910,16 @@
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.10260447738242569, 911.0: 0.01216659738912571}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8973955226175743, 911.0: 0.000329448166078341}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.9732503562965729}</t>
-  </si>
-  <si>
-    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073645517864837}</t>
+    <t>{542.0: 0.09653726996389683, 911.0: 0.012153140890196356}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9034627300361032, 911.0: 0.00032908378984788624}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.9734764334212167}</t>
+  </si>
+  <si>
+    <t>{544.0: 0.9991442019683354, 975.0: 0.0007073338850958952}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -934,7 +934,7 @@
     <t>{561.0: 0.9727862364645743, 979.0: 0.0014455734215032422}</t>
   </si>
   <si>
-    <t>{562.0: 0.9994974242995351, 211.0: 0.02935737516805425}</t>
+    <t>{562.0: 0.9994974242995351, 211.0: 0.02951245272887697}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -964,22 +964,22 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6978774665649992, 752.0: 0.04612635356536104}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.9889464225075689, 303.0: 0.08526915820731928, 181.0: 0.004568817818389492}</t>
+    <t>{580.0: 0.6970942292703501, 752.0: 0.046284020554380495}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.9889464225075689, 303.0: 0.08542101779450953, 181.0: 0.004568817818389492}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 742.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 742.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.7385974867570996}</t>
+    <t>{585.0: 0.738502526649488}</t>
   </si>
   <si>
     <t>{586.0: 1.0, 243.0: 0.011176157530601383}</t>
@@ -988,10 +988,10 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
-  </si>
-  <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988, 10.0: 0.006203832244919863}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
+  </si>
+  <si>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608, 10.0: 0.00620327812086749}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1000,22 +1000,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.32222566945663483, 686.0: 0.0027602621552418683, 171.0: 0.001344575637659295}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6745488866890498, 686.0: 0.005778347103531732, 171.0: 0.0028147416094494553, 85.0: 0.005392352175246436, 178.0: 4.7420024785248584e-05, 492.0: 1.4182649564776898e-05, 97.0: 7.210099310416157e-08, 696.0: 1.873639142285223e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017882490564377636}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9770637588262626}</t>
+    <t>{593.0: 0.4952232063620879, 686.0: 0.004199608295258517, 171.0: 0.0020751461355047337}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5015556694602002, 686.0: 0.004253309059307135, 171.0: 0.0021016812133392445, 85.0: 0.005392161377242684, 178.0: 4.767118435399492e-05, 492.0: 1.4181377169531444e-05, 97.0: 7.188096116246882e-08, 696.0: 1.820294164229931e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.018098046241080627}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9768493123494487}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1024,25 +1024,25 @@
     <t>{601.0: 1.0}</t>
   </si>
   <si>
-    <t>{602.0: 1.0, 423.0: 0.0008835519329335636, 577.0: 0.0004847309743092584}</t>
+    <t>{602.0: 1.0, 423.0: 0.0008835631852155321, 577.0: 0.0004847309743092584}</t>
   </si>
   <si>
     <t>{603.0: 0.9964699949571356}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011317469689680157}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0011333229466893692}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9962446226757116}</t>
+    <t>{606.0: 0.9962612248325914}</t>
   </si>
   <si>
     <t>{607.0: 0.9993920972644377, 276.0: 0.00019373695788784293}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46377929329690437}</t>
@@ -1051,16 +1051,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.09564755816689355}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.9043524418331064}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.006883365200764819, 698.0: 0.0026191723415400735, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.9804817960786402}</t>
+    <t>{612.0: 1.0, 613.0: 0.09528302951748821}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.9047169704825118}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.006551410373066424, 698.0: 0.0026393929396238865, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.9809807917578434}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1069,10 +1069,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 1.0, 246.0: 0.0011568986971073226, 789.0: 0.004038844209271378}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9992133045579098, 887.0: 0.008792233232233286, 861.0: 0.015827253643999197, 253.0: 2.603166717763026e-05}</t>
+    <t>{618.0: 1.0, 246.0: 0.001161647976018271, 789.0: 0.004038497551265335}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9992133045579098, 887.0: 0.008652480966197218, 861.0: 0.015843873673027867, 253.0: 2.605900275169057e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0}</t>
@@ -1084,7 +1084,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1096,10 +1096,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0, 603.0: 0.0035300050428643467}</t>
@@ -1108,7 +1108,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{632.0: 1.0, 251.0: 0.19437399123818308}</t>
+    <t>{632.0: 1.0, 251.0: 0.18306188925081432}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1120,25 +1120,25 @@
     <t>{636.0: 0.997141768292683}</t>
   </si>
   <si>
-    <t>{702.0: 0.001177581845678005}</t>
+    <t>{702.0: 0.001070622812488529}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
-  </si>
-  <si>
-    <t>{680.0: 0.9733726780999389, 481.0: 0.017981043987404435, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6361972769699986e-08, 104.0: 6.211338314171822e-10, 202.0: 3.560782883014801e-05, 477.0: 4.292948682330291e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
-  </si>
-  <si>
-    <t>{681.0: 0.8948750463505933, 171.0: 0.00314508968692994, 90.0: 0.0006467539555858231, 420.0: 9.754500572628648e-07, 212.0: 0.007039869053910691}</t>
+    <t>{679.0: 0.5064363143631436}</t>
+  </si>
+  <si>
+    <t>{680.0: 0.9733726780999389, 481.0: 0.017980770264996004, 529.0: 0.008019367529126948, 530.0: 0.008019367529126948, 853.0: 4.911970472040362e-05, 91.0: 1.6157038346075156e-08, 104.0: 5.76495264930381e-10, 202.0: 3.560681346302553e-05, 477.0: 4.292909640954372e-05, 307.0: 7.615324208027109e-07, 207.0: 2.1804120894588614e-05}</t>
+  </si>
+  <si>
+    <t>{681.0: 0.8947847675010369, 171.0: 0.0031583300427654656, 90.0: 0.0006467390242179381, 420.0: 9.738556969434549e-07, 212.0: 0.00703989207253523}</t>
   </si>
   <si>
     <t>{682.0: 1.0, 575.0: 0.001903772931810315}</t>
   </si>
   <si>
-    <t>{683.0: 0.9911283615192681, 698.0: 0.0020849939496245208}</t>
+    <t>{683.0: 0.9911283615192681, 698.0: 0.002100195030111032}</t>
   </si>
   <si>
     <t>{684.0: 1.0, 685.0: 0.29783014465702284}</t>
@@ -1147,10 +1147,10 @@
     <t>{685.0: 0.7021698553429772}</t>
   </si>
   <si>
-    <t>{686.0: 0.8508142863486531}</t>
-  </si>
-  <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088, 502.0: 4.33979353343334e-05}</t>
+    <t>{686.0: 0.8513603088813457}</t>
+  </si>
+  <si>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479, 502.0: 4.302427357788537e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1162,28 +1162,28 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.02865989283777865, 914.0: 0.005178544615863128}</t>
+    <t>{692.0: 1.0, 110.0: 0.028671186302468753, 914.0: 0.005178544615863128}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{694.0: 0.9935162094763093, 86.0: 0.10101962291233192}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.1321026344871499, 857.0: 0.09563419857543644}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009894459102902375, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{694.0: 0.9935162094763093, 86.0: 0.10101768276473509}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.13371109293715044, 857.0: 0.09570057077975534}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009894459102902375, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.20678074041286243}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7885150932959731, 683.0: 0.00887163848073191}</t>
+    <t>{698.0: 0.43309317842493755}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5621672336053275, 683.0: 0.00887163848073191}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1192,19 +1192,19 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8094192929256746}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142, 477.0: 0.00024935669419516365, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
+    <t>{702.0: 0.8093908462413278}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296, 477.0: 0.00024935208588283014, 538.0: 0.0006303183107469272, 906.0: 0.029413383692964333}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9393860466661919}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.24305064299033996}</t>
+    <t>{707.0: 0.939203537722822}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.2438919903686173}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1216,7 +1216,7 @@
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 1.0, 73.0: 0.15663214004979042, 888.0: 0.9935082371324688}</t>
+    <t>{734.0: 1.0, 73.0: 0.156636125432775, 888.0: 0.9935081954737477}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
@@ -1225,25 +1225,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0, 831.0: 0.0011072459610177697}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.16721402580269057, 246.0: 0.013082761304817251}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 246.0: 0.006519162887947546}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 742.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.9837784313080407, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.04085429900303e-07}</t>
+    <t>{740.0: 1.0, 789.0: 0.16719979757893755, 246.0: 0.01306833345561365}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 246.0: 0.0065124679121887925}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 742.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.9864152625210193, 145.0: 0.00021810329937778687, 544.0: 0.0008532636435542259, 975.0: 6.040592407155029e-07}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1255,7 +1255,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.18912434570878792, 476.0: 0.1580378380300849, 534.0: 0.10433097144749354}</t>
+    <t>{298.0: 0.19141676202040958, 476.0: 0.15961799694386994, 534.0: 0.1038916344666641}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1264,7 +1264,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.05907189044466092}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.05901378036103225}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1285,10 +1285,10 @@
     <t>{759.0: 0.9941960447119519, 226.0: 0.0006973890208834278}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 0.9936716013108826, 141.0: 0.03444090426338947}</t>
@@ -1306,16 +1306,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.008611165443517668}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.34200974234125203}</t>
+    <t>{772.0: 1.0, 493.0: 0.00858672963473121}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.3420146417863564}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1327,73 +1327,73 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9959118339148554, 171.0: 0.018258760872775833, 184.0: 0.008192684577809846, 593.0: 0.0012391153462810018, 420.0: 0.0013220370978487693, 212.0: 1.2372956890280223e-06, 681.0: 7.94241375218587e-09}</t>
+    <t>{778.0: 0.9959273581243772, 171.0: 0.018048277346930958, 184.0: 0.008208994008638804, 593.0: 0.0012387818720972163, 420.0: 0.001319876245559199, 212.0: 1.2323045809641737e-06, 681.0: 7.92139220675492e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 0.9969110378912686, 81.0: 0.00039723359866790484, 172.0: 8.372821674516765e-07, 435.0: 0.0032377428307123032}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 0.9969110378912686, 81.0: 0.00039170218459303987, 172.0: 8.227999526119286e-07, 435.0: 0.0032377428307123032}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9927452636939863, 889.0: 0.5730622017651047}</t>
+    <t>{785.0: 0.9927452636939863, 889.0: 0.25659597967009595}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
   </si>
   <si>
-    <t>{787.0: 1.0, 500.0: 0.0899529542484101, 277.0: 1.8933484705445655e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.040079086164010985}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.8256664652130076, 246.0: 0.06459982785487224, 681.0: 0.07746826097506165, 171.0: 0.00027226664733883825, 90.0: 5.598871532098427e-05, 420.0: 8.444354316543665e-08, 212.0: 0.0006094330323799761}</t>
+    <t>{787.0: 1.0, 500.0: 0.08865928024800145, 277.0: 1.892911782869632e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.035008805891847364}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.8256747836675226, 246.0: 0.06453472764382166, 681.0: 0.0774604456431821, 171.0: 0.00027341284908560966, 90.0: 5.59874227303497e-05, 420.0: 8.430552130214296e-08, 212.0: 0.0006094350250747332}</t>
   </si>
   <si>
     <t>{831.0: 0.9948604959744661}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 0.9992826398852224, 17.0: 0.015055735764571863, 918.0: 0.0009153035400826402}</t>
-  </si>
-  <si>
-    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -1.0635624241439053e-05}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951990927166076, 836.0: 0.022287545654982754, 756.0: 0.012552301255230125}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9777124543450172, 835.0: 0.0048009072833924355}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0, 980.0: 0.30157180612251394, 840.0: 0.004316784414945863, 303.0: 0.0002426835451106993, 144.0: 2.6864975813317807e-07}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 423.0: 0.005372966926216832}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 0.9992826398852224, 17.0: 0.015056719799589153, 918.0: 0.0009153035400826402}</t>
+  </si>
+  <si>
+    <t>{834.0: 1.0, 210.0: 0.052565707133917394, 82.0: 5.4255374511563215e-05, 788.0: -9.290144567754873e-06}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9950128062170731, 836.0: 0.02148231330574205, 756.0: 0.012552301255230125}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.978517686694258, 835.0: 0.004987193782926856}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0, 980.0: 0.30157180612251394, 840.0: 0.004316784414945863, 303.0: 0.00024264276304786082, 144.0: 2.6749975497178876e-07}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 423.0: 0.005360300071658137}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
   </si>
   <si>
-    <t>{840.0: 0.8479073387672611, 303.0: 0.04766815738700683, 144.0: 5.276846828173793e-05}</t>
+    <t>{840.0: 0.8479073387672611, 303.0: 0.04766014693129561, 144.0: 5.254258345024819e-05}</t>
   </si>
   <si>
     <t>{841.0: 1.0}</t>
   </si>
   <si>
-    <t>{842.0: 1.0, 606.0: 0.0023047880223845264}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.02724422134304194}</t>
+    <t>{842.0: 1.0, 606.0: 0.0023048264310759777}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.027147119252179414}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1405,25 +1405,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.03965238146853967}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.127015359537843}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0020619473322330295}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.999936846093931, 91.0: 0.000333083017097464, 104.0: 1.2644510139564067e-05, 202.0: 0.724873658328013, 680.0: 0.02549723214989914, 477.0: 0.9972701116692255, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613790208428865}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.039839460656926125}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.1271454449394628}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0021321840961913714}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.999936846093931, 91.0: 0.0003289111377593871, 104.0: 1.1735796464654187e-05, 202.0: 0.7248529883544482, 680.0: 0.02549723214989914, 477.0: 0.9972701616016698, 307.0: 0.015502624280626615, 207.0: 0.9999719661302784, 481.0: 0.0003613735196308318}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1432,10 +1432,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.0024504054353391455}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06410669123707292, 543.0: 0.0011978894970558532}</t>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.0024728235974672877}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.308581204304183, 543.0: 0.005767766291950296}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1444,13 +1444,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.6700430574810726, 253.0: 0.0011020445024359745, 490.0: 0.032209337000882715, 619.0: 0.0001431947985895543, 887.0: 1.2599932978264957e-06}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.6741299452051571, 253.0: 0.0011087663572453242, 490.0: 0.032521737688368406, 619.0: 0.0001431947985895543, 887.0: 1.23996574465423e-06}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1459,10 +1459,10 @@
     <t>{886.0: 0.3994880704794707, 531.0: 0.010695992768906298, 262.0: 0.0002365587487128925, 442.0: 2.2470573043920794e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.7685272967756446, 61.0: 0.0007715646893254152, 619.0: 0.0006435006435006435, 861.0: 1.019286658644678e-05, 253.0: 1.676458320139273e-08}</t>
-  </si>
-  <si>
-    <t>{889.0: 0.4244980371896264, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
+    <t>{887.0: 0.7675731381126282, 61.0: 0.0008107322910558497, 619.0: 0.0006435006435006435, 861.0: 1.0203570006153226e-05, 253.0: 1.6782187510120435e-08}</t>
+  </si>
+  <si>
+    <t>{889.0: 0.7415042216910095, 565.0: 0.008512712705545768, 494.0: 0.020174000756525028}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1474,61 +1474,61 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 0.9841479524438573}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.08505749048583985}</t>
-  </si>
-  <si>
-    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750516307268886, 202.0: 5.753018094275371e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.001011531576824e-06}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5007363616604456}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.8445908962275378}</t>
-  </si>
-  <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05, 502.0: 2.99421255704161e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.31411949600834177, 253.0: 0.0005166439079084569, 490.0: 0.015099947446190023}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.08412008217402274}</t>
+  </si>
+  <si>
+    <t>{906.0: 0.9635111446089225, 477.0: 0.0021750114340227723, 202.0: 5.7534504121471e-05, 307.0: 0.00020589697722602968, 680.0: 0.000433120774019691, 481.0: 8.00088973352395e-06}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.49850949482794676}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.8437531139836932}</t>
+  </si>
+  <si>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05, 502.0: 2.968432005164577e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.31001597755180876, 253.0: 0.000509894699920738, 490.0: 0.014956007118753252}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.2928357183343312, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.29019767916417166, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.863564253001892}</t>
+    <t>{917.0: 0.8632249465758889}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125, 298.0: 0.0010247133896870062, 857.0: 0.0007418295946381623}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632, 298.0: 0.0010371901197451876, 857.0: 0.0007423444404376626}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 275.0: 0.005092341926805755, 686.0: 0.11229006081201946}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.8594961155997055, 887.0: 0.03495193706015904, 61.0: 3.509033350273493e-05}</t>
+    <t>{921.0: 0.9903586579251832, 275.0: 0.005068365700743005, 686.0: 0.11193020485416627}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.8605631897220494, 887.0: 0.034908546547372354, 61.0: 3.687165427368012e-05}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.4884613327317675e-06}</t>
+    <t>{925.0: 1.0, 263.0: 0.0020337729569826204, 595.0: 3.5240935871107877e-06}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.06755921795252778, 887.0: 5.839225761840412e-05, 61.0: 5.862346885898436e-08}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06633373446981701, 887.0: 5.8319767501576726e-05, 61.0: 6.159942241426273e-08}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1555,40 +1555,40 @@
     <t>{932.0: 1.0, 108.0: 0.0004756016360696281}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 702.0: 0.0035650623885918, 249.0: 0.09421646692390045, 299.0: 0.05782857142857143}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 1.0, 702.0: 0.0035676061362825543, 249.0: 0.09502178943540394, 299.0: 0.05782857142857143}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0018182412250789639}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{940.0: 1.0, 785.0: 0.007254736306013725, 206.0: 0.0009120389136603161, 578.0: 0.00016603527800446063, 889.0: 0.0008141409204596781}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.9597625493653908}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9597522834883334}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 0.9511068120833203}</t>
   </si>
   <si>
-    <t>{971.0: 0.9959752321981424, 975.0: 0.00211164005116051, 152.0: 0.00043336244194414986}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.3506731946144431, 615.0: 0.012634838720595046}</t>
+    <t>{971.0: 0.9959752321981424, 975.0: 0.002154720585817263, 152.0: 0.00042499476517949327}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.3506731946144431, 615.0: 0.01246779786909029}</t>
   </si>
   <si>
     <t>{973.0: 1.0, 565.0: 0.010326270022292377}</t>
@@ -1597,16 +1597,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9913115968644323, 152.0: 0.07117800722589049}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{975.0: 0.9912686205827286, 152.0: 0.07117860548757622}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.21782088391677432, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.22276459382152106, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1624,19 +1624,19 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.37392488484691844}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27544565774862106}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{992.0: 0.42961599983178916}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.21976384529210544}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{1.0: 0.9935835739493104, 886.0: 0.006416426050689767}</t>
   </si>
   <si>
-    <t>{4.0: 0.9120047090807345, 496.0: 0.00433652568326611, 559.0: 0.04547728889017001, 944.0: 0.035893952150862156, 971.0: 0.0022717118157395614, 975.0: 1.3458167412878542e-05, 152.0: 2.3542118150070355e-06}</t>
+    <t>{4.0: 0.9120047090807345, 496.0: 0.00433652568326611, 559.0: 0.04547728889017001, 944.0: 0.035893952150862156, 971.0: 0.0022717118157395614, 975.0: 1.3458167412878542e-05, 152.0: 2.354211815007035e-06}</t>
   </si>
   <si>
     <t>{5.0: 0.9962516462364502, 403.0: 0.0037483537635497914}</t>
@@ -1654,7 +1654,7 @@
     <t>{10.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919250645994836, 178.0: 0.0006459948320413437, 623.0: 0.0016149870801033584, 696.0: 0.005721431161519686, 492.0: 9.252232685240913e-05}</t>
+    <t>{14.0: 0.9919302775984508, 178.0: 0.0006455777921239509, 623.0: 0.001613944480309877, 696.0: 0.005717900736820557, 492.0: 9.229939229500001e-05}</t>
   </si>
   <si>
     <t>{16.0: 1.0}</t>
@@ -1675,10 +1675,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8818073171464981, 246.0: 0.06083604370162686, 681.0: 0.024047541953283215, 741.0: 0.008524881741866, 789.0: 0.01083511129857701, 90.0: 0.013949104158149093}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121358, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8818073171464977, 246.0: 0.06083530380575233, 681.0: 0.024047541953283215, 741.0: 0.008524881741866, 789.0: 0.010835851194451566, 90.0: 0.013949104158149088}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121358, 443.0: 0.07303779428966838, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1693,16 +1693,16 @@
     <t>{73.0: 0.8707625109862649, 888.0: 0.007535418671092929, 11.0: 0.12170207034264227}</t>
   </si>
   <si>
-    <t>{75.0: 0.7733159095487784, 917.0: 0.22668409045122156}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.999477670410029, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.7755896859332865, 917.0: 0.2244103140667137}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613502, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{79.0: 0.9797512417816668, 271.0: 0.018221544275942185, 262.0: 0.0020272139423908164}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699432, 172.0: 0.001461732130057138}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
   </si>
   <si>
     <t>{82.0: 0.9987155701441417, 914.0: 0.0011614816447747813, 110.0: 0.00012294821108364552}</t>
@@ -1714,7 +1714,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{85.0: 0.9672733850680975, 178.0: 0.023807093342605865, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180957, 694.0: 0.011355364681904206}</t>
@@ -1726,10 +1726,10 @@
     <t>{89.0: 0.9985642498205313, 88.0: 0.001435750179468772}</t>
   </si>
   <si>
-    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.891516281160075e-07, 681.0: 8.615903205520463e-09}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9592936041245316, 104.0: 0.02111807000500054, 92.0: 0.007395204865203072, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
+    <t>{90.0: 0.9975819711770967, 420.0: 0.002417631055372248, 212.0: 3.8915162811600777e-07, 681.0: 8.615903205520463e-09}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9592936041245316, 104.0: 0.021348361064508405, 92.0: 0.0071649138056952095, 294.0: 0.0035855077645153698, 566.0: 0.007920445430630262, 858.0: 0.0006784398019144885, 543.0: 8.728008204353057e-06}</t>
   </si>
   <si>
     <t>{92.0: 0.5388406100308102, 91.0: 0.33131920690356903, 104.0: 6.141017507004604e-05, 858.0: 0.12813039795525835, 543.0: 0.001648374935292302}</t>
@@ -1750,16 +1750,16 @@
     <t>{100.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 0.9909510743504854, 543.0: 0.0073168415416707865, 86.0: 0.0017320841078430878}</t>
-  </si>
-  <si>
-    <t>{107.0: 0.9737688616575128, 543.0: 0.0071899739991009666, 86.0: 0.001702051305706429, 505.0: 0.017339113037679228}</t>
+    <t>{107.0: 0.9909563540599625, 543.0: 0.007311552603786083, 86.0: 0.001732093336251144}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.9737740498215104, 543.0: 0.007184776766708101, 86.0: 0.001702060374102074, 505.0: 0.017339113037679228}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
   </si>
   <si>
-    <t>{109.0: 0.6641652280938671, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
+    <t>{109.0: 0.6641652280938668, 110.0: 0.20318185859898202, 914.0: 0.13265291330715132}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007262, 44.0: 0.015208262399273646}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289222}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1786,13 +1786,13 @@
     <t>{152.0: 0.999050031665611, 975.0: 0.0009499683343888538}</t>
   </si>
   <si>
-    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.02189152298465993, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.40936536652705274, 700.0: 0.568602215730542, 173.0: 0.021891672992387104, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.8953373976905101, 914.0: 0.09579461286779518, 110.0: 0.008867989441694459}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589452, 893.0: 0.0007695267410542519}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578105}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1804,10 +1804,10 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9794232197379924, 81.0: 0.020576780262007807}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9461440454101391, 404.0: 0.006089422657506927, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.2885762735512773e-06, 681.0: 2.8529363990065164e-08, 831.0: 0.0014662756598240467}</t>
+    <t>{172.0: 0.9794232380232748, 81.0: 0.020576761976725477}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9461505286921807, 404.0: 0.006082939375465398, 185.0: 0.037415551601674576, 700.0: 0.0008780195002414901, 420.0: 0.008005368064976278, 212.0: 1.2885762735512775e-06, 681.0: 2.8529363990065164e-08, 831.0: 0.0014662756598240467}</t>
   </si>
   <si>
     <t>{174.0: 0.9852869053457572, 502.0: 0.014713094654242278}</t>
@@ -1822,25 +1822,25 @@
     <t>{177.0: 0.9988607234406152, 562.0: 0.0011014279934070577, 211.0: 3.784856597773307e-05}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863139, 681.0: 0.0071717530791852065, 768.0: 0.0065680205345009825}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5374525139860676, 180.0: 0.4506362016142386, 410.0: 0.011704328030112692, 850.0: 0.00018677880522148456, 277.0: 2.0177564359693218e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9742485155365542, 410.0: 0.0253040571703813, 850.0: 0.0004038046057304886, 277.0: 4.362268733438852e-05}</t>
+    <t>{178.0: 0.9862044958405798, 681.0: 0.007227483624919332, 768.0: 0.0065680205345009825}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5383826591317817, 180.0: 0.44973000908679295, 410.0: 0.011680791584168786, 850.0: 0.0001864032083276473, 277.0: 2.0136988928826133e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.974248515536554, 410.0: 0.0253040571703813, 850.0: 0.0004038046057304886, 277.0: 4.362268733438852e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.9979967004477966, 277.0: 0.0020032995522036297}</t>
+    <t>{182.0: 0.9979888796876847, 277.0: 0.0020111203123151546}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9698751361664367, 171.0: 0.011496757453733453, 593.0: 0.0033706896785585493, 778.0: 0.015229946623203339, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103237e-09, 681.0: 9.788118795062518e-11}</t>
+    <t>{184.0: 0.96983240765195, 171.0: 0.01150971730022789, 593.0: 0.003379243143430801, 778.0: 0.015251161826322662, 420.0: 2.7465559220133375e-05, 212.0: 4.420966989103239e-09, 681.0: 9.788118795062518e-11}</t>
   </si>
   <si>
     <t>{858.0: 0.9872985781990524, 543.0: 0.012701421800947868}</t>
@@ -1855,7 +1855,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454973, 857.0: 0.005331753554502374}</t>
   </si>
   <si>
     <t>{205.0: 0.9904418591949314, 206.0: 0.007663476366793177, 578.0: 0.0018946644382753695}</t>
@@ -1885,16 +1885,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680912, 409.0: 0.2184666176319087}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310284, 999.0: 0.09984639016897078}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345017, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.7813754377265824, 409.0: 0.21862456227341756}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310298, 999.0: 0.09984639016897079}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310292, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648748, 490.0: 0.002769789667703293, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1906,10 +1906,10 @@
     <t>{226.0: 0.9845670939053099, 265.0: 0.015432906094690033}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780222, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809519, 738.0: 0.00761904761904762}</t>
+    <t>{227.0: 0.9996683166600522, 297.0: 0.00017861479393955929, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809519, 738.0: 0.007619047619047625}</t>
   </si>
   <si>
     <t>{230.0: 0.9967205946655008, 581.0: 0.0030694922307337147, 303.0: 0.00020991310376563044}</t>
@@ -1924,13 +1924,13 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2375030654635066, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.23750306546350647, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -1939,10 +1939,10 @@
     <t>{244.0: 0.9789196310935443, 565.0: 0.021080368906455867}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.9994584743592916, 46.0: 0.000508453576393081, 681.0: 1.3865907519542821e-05, 741.0: 4.9154804294504824e-06, 789.0: 6.247567902028763e-06, 90.0: 8.04310846460373e-06}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.9994584739326644, 46.0: 0.000508453576393081, 681.0: 1.3865907519542821e-05, 741.0: 4.9154804294504824e-06, 789.0: 6.247994528907746e-06, 90.0: 8.043108464603724e-06}</t>
   </si>
   <si>
     <t>{249.0: 1.0}</t>
@@ -1963,16 +1963,16 @@
     <t>{262.0: 0.9992897727272732, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549508, 595.0: 0.0013976754450492866}</t>
+    <t>{263.0: 0.9986024273630009, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
   </si>
   <si>
-    <t>{61.0: 0.2854904034012877, 887.0: 0.7145095965987118}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862112, 942.0: 0.0002797618337629159}</t>
+    <t>{61.0: 0.2854902606045079, 887.0: 0.7145097393954924}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{271.0: 0.9988083631242551, 237.0: 0.001191636875744773}</t>
@@ -1981,7 +1981,7 @@
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
   </si>
   <si>
-    <t>{275.0: 0.944642940991897, 921.0: 0.007832083685657111, 686.0: 0.001559704638073398, 77.0: 0.04594126166338233, 85.0: 2.400902098948645e-05}</t>
+    <t>{275.0: 0.944642940991897, 921.0: 0.007832083685657111, 686.0: 0.001559704638073398, 77.0: 0.045940876219367474, 85.0: 2.4394465004310364e-05}</t>
   </si>
   <si>
     <t>{276.0: 0.9986445928937944, 167.0: 0.0005680531756420232, 596.0: 0.0007873539305638049}</t>
@@ -1999,7 +1999,7 @@
     <t>{285.0: 0.8919655461591188, 311.0: 0.10803445384088109}</t>
   </si>
   <si>
-    <t>{286.0: 0.7822697063992795, 909.0: 0.16270672690254548, 306.0: 0.012156833952983987, 142.0: 0.0004927091240867961, 788.0: 0.04237388612014245, 44.0: 1.3750096152363283e-07}</t>
+    <t>{286.0: 0.7826425451808656, 909.0: 0.16233388812095964, 306.0: 0.012156833952984001, 142.0: 0.00049270840246167, 788.0: 0.04237388612014245, 44.0: 1.3822258664971235e-07}</t>
   </si>
   <si>
     <t>{288.0: 1.0}</t>
@@ -2008,10 +2008,10 @@
     <t>{291.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.960343291082585, 298.0: 0.039656708917415205}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9858971704678536, 297.0: 0.013916655611733712, 476.0: 0.00010253831823516036, 534.0: 8.363560217789607e-05}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968175}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9858986381598601, 297.0: 0.013915187919726558, 476.0: 0.00010253831823516036, 534.0: 8.363560217789607e-05}</t>
   </si>
   <si>
     <t>{299.0: 0.9843037974683544, 443.0: 0.014031863814927976, 291.0: 0.00166433871671759}</t>
@@ -2020,7 +2020,7 @@
     <t>{301.0: 0.9995592383638928, 145.0: 0.0004333709205954404, 743.0: 1.3700028984314633e-06, 544.0: 4.091679947130299e-10, 975.0: 1.2514541508064231e-06, 942.0: 4.685949257780303e-06, 152.0: 8.290003674011708e-08}</t>
   </si>
   <si>
-    <t>{303.0: 0.9111152186701202, 144.0: 0.00210338257484445, 840.0: 0.08678139875503478}</t>
+    <t>{303.0: 0.9111062991603585, 144.0: 0.0021123020846067044, 840.0: 0.08678139875503478}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -2029,19 +2029,19 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{306.0: 0.9598571373775301, 142.0: 0.04011330634102033, 44.0: 2.9556281449005184e-05}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.923715512154184, 204.0: 0.003135424277730702, 426.0: 0.0731432659158121, 857.0: 5.797652272921263e-06}</t>
+    <t>{306.0: 0.9598571373775313, 142.0: 0.04011315122533902, 44.0: 2.9711397130311997e-05}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9260438873398635, 204.0: 0.0030879185307461933, 426.0: 0.07086273685860801, 857.0: 5.45727078249987e-06}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392755, 5.0: 0.05300183025736111, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.007315957933241885}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667586, 217.0: 0.007315957933241885}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534323, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.4211033519367685, 98.0: 0.48765730196849894, 532.0: 0.0650062875506497, 560.0: 0.02623305854408272}</t>
@@ -2059,40 +2059,40 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.18093491659719949, 404.0: 0.7068965163699246, 907.0: 0.10225181937316458, 930.0: 0.00991674765971127}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.17699640347484033, 404.0: 0.7108350294922836, 907.0: 0.10231697089651676, 930.0: 0.009851596136359083}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917457, 403.0: 0.05686174290825453}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{410.0: 0.9895157952821079, 77.0: 0.010478728507540655, 85.0: 5.476210351471466e-06}</t>
+    <t>{410.0: 0.9895157952821079, 77.0: 0.010478640591731635, 85.0: 5.564126160484077e-06}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888404, 759.0: 0.0030998140111593293}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471701, 277.0: 0.1268867924528302}</t>
-  </si>
-  <si>
-    <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035863, 887.0: 0.002013998002050393, 61.0: 1.7746813316878177e-06}</t>
-  </si>
-  <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864623}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.0001609375473236561, 681.0: 3.563192929675043e-06}</t>
+    <t>{415.0: 0.8729333963155408, 277.0: 0.12706660368445913}</t>
+  </si>
+  <si>
+    <t>{418.0: 0.970540792936582, 922.0: 0.027443434380035863, 887.0: 0.0020140238148212953, 61.0: 1.7488685607857592e-06}</t>
+  </si>
+  <si>
+    <t>{419.0: 0.9852607709750566, 17.0: 0.014739229024943313}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365612, 681.0: 3.563192929675043e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.998756373585375, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540838, 91.0: 2.5031470007799736e-07, 104.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.1032372732886715e-05, 207.0: 5.350025699706738e-07}</t>
-  </si>
-  <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.04796286745745229}</t>
+    <t>{423.0: 0.998756373585375, 202.0: 0.000824107165388788, 307.0: 0.00018654015024926568, 853.0: 0.00021111618136540828, 91.0: 2.5031470007799736e-07, 104.0: 4.639595059416486e-11, 680.0: 4.5181222698519826e-08, 477.0: 2.104891443709804e-05, 207.0: 5.18460865759347e-07}</t>
+  </si>
+  <si>
+    <t>{424.0: 0.9521112255406798, 585.0: 0.04788877445932028}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2104,7 +2104,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938212}</t>
+    <t>{431.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2116,19 +2116,19 @@
     <t>{434.0: 0.6910542610395959, 585.0: 0.3089457389604041}</t>
   </si>
   <si>
-    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796469120002929e-06, 172.0: 7.0214164535638515e-09}</t>
+    <t>{435.0: 0.9862700228832952, 781.0: 0.01372517362616835, 81.0: 4.796463382614096e-06, 172.0: 7.027153842396636e-09}</t>
   </si>
   <si>
     <t>{439.0: 0.973535457348407, 83.0: 0.026464542651593013}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.01136363636363637}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413791, 291.0: 0.10603448275862071}</t>
+    <t>{443.0: 0.8939655172413791, 291.0: 0.10603448275862067}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
@@ -2140,25 +2140,25 @@
     <t>{478.0: 0.7032887077997673, 170.0: 0.29671129220023285}</t>
   </si>
   <si>
-    <t>{479.0: 0.9240044013343366, 942.0: 0.020920854369834017, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
+    <t>{479.0: 0.9235911012950445, 942.0: 0.02133415440912519, 559.0: 0.0015735641227380014, 944.0: 0.05350118017309206}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555477, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.977886977886978, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066564, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294476, 503.0: 0.02208588957055216}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.4056168491768558}</t>
   </si>
   <si>
-    <t>{492.0: 0.9720846592169228, 97.0: 0.011519836235458273, 696.0: 0.0004892714720398, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
+    <t>{492.0: 0.9720846452514066, 97.0: 0.011519836235458273, 696.0: 0.0004892854375563532, 85.0: 0.0005224471486935846, 178.0: 0.015383785926885338}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -2170,13 +2170,13 @@
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.999597044996642, 270.0: 0.0003978633004063298, 479.0: 4.978971520965257e-06, 942.0: 1.1273143066336438e-07}</t>
+    <t>{499.0: 0.999597044996642, 270.0: 0.0003978633004063298, 479.0: 4.97674446542064e-06, 942.0: 1.1495848620798401e-07}</t>
   </si>
   <si>
     <t>{500.0: 0.9993798449612404, 277.0: 0.0006201550387596901}</t>
   </si>
   <si>
-    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 298.0: 0.0008492817296495458, 857.0: 0.0003280198950266963}</t>
+    <t>{502.0: 0.9978808570755825, 534.0: 0.0009418412997409933, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2200,7 +2200,7 @@
     <t>{534.0: 0.9992392131290079, 402.0: 0.0007513670709772362, 476.0: 7.903684289674034e-06, 141.0: 1.5161157253732234e-06}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.006547732017460619}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
   </si>
   <si>
     <t>{536.0: 1.0}</t>
@@ -2260,13 +2260,13 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.989070225924235, 752.0: 0.010929774075764336}</t>
+    <t>{580.0: 0.9893240052897357, 752.0: 0.010675994710264229}</t>
   </si>
   <si>
     <t>{581.0: 0.9342673531606404, 303.0: 0.06389166191242392, 181.0: 0.0018409849269359108}</t>
   </si>
   <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.003812636165577342}</t>
   </si>
   <si>
     <t>{585.0: 1.0}</t>
@@ -2281,13 +2281,13 @@
     <t>{589.0: 0.9635931981692133, 145.0: 0.001457046166586512, 743.0: 0.022665162591345742, 10.0: 0.012284593072854464}</t>
   </si>
   <si>
-    <t>{593.0: 0.9912075672819319, 686.0: 0.0054271725575712314, 171.0: 0.003365260160497021}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.9878301710357595, 686.0: 0.005408680253004251, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.031470093290503e-05, 97.0: 6.201917147818674e-08, 696.0: 1.5258052073198007e-08}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861227, 402.0: 0.0008894395353984784, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9912172314130084, 686.0: 0.005417508426494019, 171.0: 0.003365260160497021}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.9878398022377088, 686.0: 0.005399049051054196, 171.0: 0.0033537935238321876, 85.0: 0.0032958439862501273, 178.0: 8.111922299795207e-05, 492.0: 3.0314700497386945e-05, 97.0: 6.201917147818674e-08, 696.0: 1.525848759129169e-08}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861227, 402.0: 0.0008894395353984776, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294205, 599.0: 0.017932683170579104}</t>
@@ -2302,7 +2302,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.0027765624061661617}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.0027766558342504455}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2326,16 +2326,16 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230429, 615.0: 0.01963457867466593, 698.0: 0.010908099263703298, 832.0: 0.1401690755385874}</t>
+    <t>{305.0: 0.8292882465230429, 615.0: 0.019634578674665944, 698.0: 0.010908099263703298, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{618.0: 0.9843454790823212, 246.0: 0.0026790039815938623, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914439, 887.0: 0.013007925875422117, 861.0: 0.02146674605646208, 253.0: 1.5683876672083762e-05}</t>
+    <t>{618.0: 0.9843454790823212, 246.0: 0.0026781179241103016, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791265, 861.0: 0.02152800086044684, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{621.0: 0.9811912225705329, 894.0: 0.018808777429467086}</t>
@@ -2350,7 +2350,7 @@
     <t>{630.0: 0.9965449160908193, 603.0: 0.0034550839091806516}</t>
   </si>
   <si>
-    <t>{632.0: 0.837352884429867, 251.0: 0.16264711557013312}</t>
+    <t>{632.0: 0.8526481384373357, 251.0: 0.14735186156266386}</t>
   </si>
   <si>
     <t>{636.0: 1.0}</t>
@@ -2359,7 +2359,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.0004386848973905325, 91.0: 5.201367219170938e-07, 104.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.370382324335479e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.1116985253964603e-06}</t>
+    <t>{680.0: 0.9903684821037604, 481.0: 0.005206450047061397, 529.0: 0.0018930546760960636, 530.0: 0.0020152730341085933, 853.0: 0.00043868489739053217, 91.0: 5.201367219170938e-07, 104.0: 9.640759270133481e-11, 202.0: 3.267379999936262e-05, 477.0: 4.373819576642562e-05, 307.0: 4.5686685484262255e-08, 207.0: 1.077326002325619e-06}</t>
   </si>
   <si>
     <t>{681.0: 0.9923031168232245, 171.0: 0.00432504279801037, 90.0: 0.0007631323849157586, 420.0: 1.8494445633932727e-06, 212.0: 0.0026068585492860057}</t>
@@ -2380,7 +2380,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.9971534924458071, 174.0: 0.0028046266191142652, 502.0: 4.188093507885912e-05}</t>
+    <t>{687.0: 0.9971296091852501, 174.0: 0.0028281584829973174, 502.0: 4.223233175207543e-05}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972786, 208.0: 0.042517006802721094}</t>
@@ -2395,10 +2395,10 @@
     <t>{694.0: 0.9398443029016281, 86.0: 0.06015569709837227}</t>
   </si>
   <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661317, 492.0: 0.017884122003138155, 14.0: 0.0004997942885116642, 178.0: 3.254928612905661e-07, 623.0: 8.137321532264157e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{298.0: 0.7214598032652261, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063286, 492.0: 0.01785610337176307, 14.0: 0.0004997969151486987, 178.0: 3.2528273032782204e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2410,7 +2410,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9618681096678862, 481.0: 0.012221958191459803, 477.0: 0.005093562077699728, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
+    <t>{704.0: 0.9618681096678862, 481.0: 0.012221958191459796, 477.0: 0.005093562077699728, 538.0: 0.0012338062924120913, 906.0: 0.019582563770542093}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2419,10 +2419,10 @@
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{734.0: 0.21340928089644, 73.0: 0.10923109066691225, 888.0: 0.6773596284366478}</t>
-  </si>
-  <si>
-    <t>{737.0: 0.9266375545851532, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{734.0: 0.21356923288861746, 73.0: 0.10920609816813451, 888.0: 0.6772246689432481}</t>
+  </si>
+  <si>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
@@ -2431,13 +2431,13 @@
     <t>{739.0: 0.999451679232351, 831.0: 0.0005483207676490747}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9831149927219794, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.6108457830393615, 742.0: 0.3853415807950608, 758.0: 0.003812636165577341}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9831149927219793, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.6108457830393619, 742.0: 0.3853415807950608, 758.0: 0.003812636165577341}</t>
   </si>
   <si>
     <t>{743.0: 0.9994769518487787, 145.0: 0.00022416349338054986, 544.0: 0.000298505923321822, 975.0: 3.787345189111719e-07}</t>
@@ -2446,7 +2446,7 @@
     <t>{298.0: 0.562630917469627, 476.0: 0.2408881441139505, 534.0: 0.19648093841642233}</t>
   </si>
   <si>
-    <t>{752.0: 0.746950053095246, 580.0: 0.25304994690475374}</t>
+    <t>{752.0: 0.7472432930230416, 580.0: 0.25275670697695835}</t>
   </si>
   <si>
     <t>{755.0: 1.0}</t>
@@ -2455,7 +2455,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.9991689750692524, 583.0: 0.0005095708829251114, 742.0: 0.0003214540478228109}</t>
+    <t>{758.0: 0.9991689750692524, 583.0: 0.0005095708829251116, 742.0: 0.0003214540478228109}</t>
   </si>
   <si>
     <t>{759.0: 0.9984255510571299, 226.0: 0.0015744489428699954}</t>
@@ -2473,34 +2473,34 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9872276603169211, 493.0: 0.01277233968307938}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9872276603169204, 493.0: 0.012772339683079368}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125864, 171.0: 0.019238165421154786, 184.0: 0.002458085790359677, 593.0: 0.001521981335728533, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031757e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9989279297523234, 81.0: 0.0003490904449492977, 172.0: 5.110236994390215e-07, 435.0: 0.0007224687790277634}</t>
+    <t>{778.0: 0.9753594977972541, 171.0: 0.018743715381244096, 184.0: 0.0024402799418704003, 593.0: 0.001482998639460586, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031757e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9989279297523234, 81.0: 0.00034909002737804464, 172.0: 5.114412706920357e-07, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047504, 889.0: 0.2047145289952496}</t>
-  </si>
-  <si>
-    <t>{787.0: 0.8290401866880288, 500.0: 0.17095484553817908, 277.0: 4.967773791507788e-06}</t>
+    <t>{785.0: 0.6852693950668322, 889.0: 0.314730604933168}</t>
+  </si>
+  <si>
+    <t>{787.0: 0.8293916229455557, 500.0: 0.1706034092806525, 277.0: 4.967773791507788e-06}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.8954491414330118, 246.0: 0.0544953294538673, 681.0: 0.04967025755318535, 171.0: 0.00021649230569130122, 90.0: 3.819899531031601e-05, 420.0: 9.257492618603484e-08, 212.0: 0.0001304876840075733}</t>
+    <t>{789.0: 0.8955102888552557, 246.0: 0.05443418203162405, 681.0: 0.04967025755318535, 171.0: 0.00021649230569130122, 90.0: 3.819899531031601e-05, 420.0: 9.257492618603484e-08, 212.0: 0.0001304876840075733}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -2515,52 +2515,52 @@
     <t>{834.0: 0.9681697612732096, 210.0: 0.03162121602224349, 82.0: 4.572371661964563e-05, 788.0: 0.00016329898792730586}</t>
   </si>
   <si>
-    <t>{835.0: 0.9830399431369468, 836.0: 0.011920702428051405, 756.0: 0.005039354435002383}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646831, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830385, 486.0: 0.0881092279043585, 980.0: 0.01877165457752797, 840.0: 0.00015083648348333185, 303.0: 1.0422831267752875e-05, 144.0: 2.4061942134096673e-08}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.987112614188104, 423.0: 0.012887385811895665}</t>
-  </si>
-  <si>
-    <t>{840.0: 0.9352264726590003, 303.0: 0.06462433687495522, 144.0: 0.0001491904660445292}</t>
+    <t>{835.0: 0.9827025729172754, 836.0: 0.012258072647722114, 756.0: 0.005039354435002383}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952598, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.7794419019431164, 536.0: 0.11351593219830385, 486.0: 0.0881092279043585, 980.0: 0.01877165457752797, 840.0: 0.00015083648348333185, 303.0: 1.042272923176079e-05, 144.0: 2.4163978126184215e-08}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9871126141881048, 423.0: 0.012887385811895666}</t>
+  </si>
+  <si>
+    <t>{840.0: 0.9352264726590003, 303.0: 0.06462370422455951, 144.0: 0.0001498231164402462}</t>
   </si>
   <si>
     <t>{842.0: 0.9956627812415287, 606.0: 0.00433721875847113}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305082, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235835}</t>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076419, 277.0: 0.09749670619235835}</t>
   </si>
   <si>
     <t>{851.0: 0.7041613012602975, 7.0: 0.2958386987397023}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290924, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8251169051732464, 91.0: 0.000978318617322093, 104.0: 1.813318283763762e-07, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.10588495780442554, 307.0: 8.593151202294275e-05, 207.0: 0.004452673901477769, 481.0: 9.667988327615617e-06}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455604, 976.0: 0.002654440154440155}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947861}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9907006998347077, 253.0: 0.0007238184843798091, 490.0: 0.008453820911291304, 619.0: 0.00012004347186266865, 887.0: 1.617297758973283e-06}</t>
+    <t>{852.0: 0.9898358092259583, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8251169051732459, 91.0: 0.000978318617322093, 104.0: 1.813318283763762e-07, 202.0: 0.061455739406782554, 680.0: 0.002015624264566887, 477.0: 0.1060226296937994, 307.0: 8.593151202294275e-05, 207.0: 0.004315002012103898, 481.0: 9.667988327615617e-06}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178297, 976.0: 0.0026647286821705413}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.994730730308541, 298.0: 0.005269269691458645}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990519, 543.0: 0.012701421800947866}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9906917700310797, 253.0: 0.0007238119601521299, 490.0: 0.008462764860626144, 619.0: 0.00012003110616717065, 887.0: 1.6220419752320364e-06}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360666, 10.0: 0.027726001863932894}</t>
@@ -2572,7 +2572,7 @@
     <t>{886.0: 0.9906196327123794, 531.0: 0.009182424896677302, 262.0: 0.00018743217549493918, 442.0: 1.051021544831435e-05}</t>
   </si>
   <si>
-    <t>{887.0: 0.9985590569313146, 61.0: 0.0008798970965816699, 619.0: 0.0005488344953339268, 861.0: 1.2202561423636924e-05, 253.0: 8.915345993681083e-09}</t>
+    <t>{887.0: 0.9985718767403097, 61.0: 0.0008670989779753015, 619.0: 0.0005487779598127294, 861.0: 1.223738111667056e-05, 253.0: 8.940785702608694e-09}</t>
   </si>
   <si>
     <t>{889.0: 0.9590857191621842, 565.0: 0.012464778704103075, 494.0: 0.02844950213371266}</t>
@@ -2599,13 +2599,13 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.0049774716761021975, 174.0: 1.3999800095412306e-05, 502.0: 2.090562483137727e-07}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410216, 253.0: 0.0007239065389194394, 490.0: 0.008454872120059184}</t>
-  </si>
-  <si>
-    <t>{915.0: 0.5001414069283653, 171.0: 0.2780495897244083, 420.0: 0.22180900334722659}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4117263642249503e-05, 502.0: 2.1081030824663275e-07}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101356, 253.0: 0.0007239000083155152, 490.0: 0.008463817181548879}</t>
+  </si>
+  <si>
+    <t>{915.0: 0.5079882478723833, 171.0: 0.2735800010264546, 420.0: 0.21843175110116222}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2614,19 +2614,19 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9888946350590236, 297.0: 0.005990275426909785, 298.0: 0.003689922768103959, 857.0: 0.0014251667459625362}</t>
+    <t>{919.0: 0.9890254656143604, 297.0: 0.005859444871573597, 298.0: 0.0036903314745024333, 857.0: 0.0014247580395640633}</t>
   </si>
   <si>
     <t>{921.0: 0.8183024740968304, 275.0: 0.00526171858344155, 686.0: 0.17643580731972855}</t>
   </si>
   <si>
-    <t>{922.0: 0.9315741024854248, 887.0: 0.06836565552205066, 61.0: 6.024199252435389e-05}</t>
-  </si>
-  <si>
-    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495125086512, 595.0: 5.796567762552023e-06}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6029591223004622, 418.0: 0.22677151406745155, 922.0: 0.17018011800462188, 887.0: 8.916705583274729e-05, 61.0: 7.857163176271236e-08}</t>
+    <t>{922.0: 0.9315741024854248, 887.0: 0.06836653174288196, 61.0: 5.936577169307047e-05}</t>
+  </si>
+  <si>
+    <t>{925.0: 0.9958527083071509, 263.0: 0.004141495551461485, 595.0: 5.796141387578684e-06}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6029858983494535, 418.0: 0.22676395094056626, 922.0: 0.17016090508251563, 887.0: 8.916819865850078e-05, 61.0: 7.742880600922179e-08}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -2635,7 +2635,7 @@
     <t>{932.0: 0.9982325910215623, 108.0: 0.0017674089784376105}</t>
   </si>
   <si>
-    <t>{933.0: 0.8432666572983654, 702.0: 0.0053186165707875465, 249.0: 0.11697890198493721, 299.0: 0.03443582414590989}</t>
+    <t>{933.0: 0.84377391441872, 702.0: 0.005296760291391842, 249.0: 0.11649350114397818, 299.0: 0.03443582414590989}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747106, 5.0: 0.03148289312528854}</t>
@@ -2644,25 +2644,25 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965653, 171.0: 0.0032933285286552163, 593.0: 0.0036190543506065156, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.9864997747918501, 785.0: 0.010626942004023135, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.0009868862223623436}</t>
+    <t>{937.0: 0.9880009426222852, 171.0: 0.0032933364754076174, 593.0: 0.003616662378134205, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.9864997747918501, 785.0: 0.010096577353725059, 206.0: 0.0015124655498356696, 578.0: 0.0003739314319291597, 889.0: 0.00151725087266042}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.730535835668062, 634.0: 0.1081245466200308, 848.0: 0.16042594361443507, 707.0: 0.000913674097471865}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972909, 848.0: 0.1844589262685211, 707.0: 0.001050549176659826}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382853, 615.0: 0.045862412761714856}</t>
+    <t>{971.0: 0.9930875576036868, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.0462311557788945}</t>
   </si>
   <si>
     <t>{973.0: 0.977720207253886, 565.0: 0.02227979274611399}</t>
@@ -2674,7 +2674,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601316, 489.0: 0.04917254413384411, 935.0: 0.0004118640060240265}</t>
+    <t>{782.0: 0.9504155918601316, 489.0: 0.04917437168691644, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.013490241102181402}</t>
